--- a/Planning/functional_requirements.xlsx
+++ b/Planning/functional_requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C59673F-1570-40CD-A7B3-0CB56C65662F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CAC7F1-8763-4E89-A1F0-E51B5F099F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>FR #</t>
   </si>
@@ -39,16 +39,22 @@
     <t>Must</t>
   </si>
   <si>
-    <t>Application shall enable to users to select portions of the grid to categorize the forest into types such as "natural" and "managed".</t>
-  </si>
-  <si>
-    <t>Application shall automatically categorize grid slots based on health of forest, biodiverity, carbon capture and economic value.</t>
-  </si>
-  <si>
-    <t>Application shall allow users to assign word objects to grid-slots.</t>
-  </si>
-  <si>
-    <t>Application must have a policy picking mechanism.</t>
+    <t>Application must allow users to add, edit and removed actions in a policy.</t>
+  </si>
+  <si>
+    <t>Application must allow users to set rotation period.</t>
+  </si>
+  <si>
+    <t>Application must allow users to play and pause the simulation.</t>
+  </si>
+  <si>
+    <t>Application must have a planning mechanism.</t>
+  </si>
+  <si>
+    <t>Users must be able to alter environmental conditions.</t>
+  </si>
+  <si>
+    <t>Application must facilitate a timeline that can be navigated.</t>
   </si>
 </sst>
 </file>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -401,32 +407,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -437,6 +437,28 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
